--- a/C:\Users\mrwig\OneDrive\Desktop\matrix.xlsx
+++ b/C:\Users\mrwig\OneDrive\Desktop\matrix.xlsx
@@ -460,13 +460,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
